--- a/misc/exer_aula_5.xlsx
+++ b/misc/exer_aula_5.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Anova" sheetId="1" r:id="rId1"/>
+    <sheet name="Tukey" sheetId="2" r:id="rId2"/>
+    <sheet name="Duncan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>IAC_11</t>
   </si>
@@ -41,21 +43,6 @@
     <t>MANTIQUEIRA</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -65,21 +52,6 @@
     <t>Repetição</t>
   </si>
   <si>
-    <t>SQTotal</t>
-  </si>
-  <si>
-    <t>SQTrat</t>
-  </si>
-  <si>
-    <t>SQResíduo</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>FV</t>
   </si>
   <si>
@@ -99,6 +71,137 @@
   </si>
   <si>
     <t>Fc(1%)</t>
+  </si>
+  <si>
+    <t>realizado numa área perfeitamente homogênea quanto às condições experimentais,</t>
+  </si>
+  <si>
+    <t>Num experimento inteiramente casualizado, de competição de variedades de mandioca,</t>
+  </si>
+  <si>
+    <t>Quadro da análise de variância.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">foram utilizadas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> repetições das seguintes variedades:</t>
+    </r>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <r>
+      <t>QM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resíduo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5 trat X 20 GL res)</t>
+    </r>
+  </si>
+  <si>
+    <t>s(m)</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Teste de Tukey</t>
+  </si>
+  <si>
+    <t>5% de significância</t>
+  </si>
+  <si>
+    <t>1- IAC_5</t>
+  </si>
+  <si>
+    <t>2-IAC_7</t>
+  </si>
+  <si>
+    <t>3-IAC_11</t>
+  </si>
+  <si>
+    <t>4-IRACEMA</t>
+  </si>
+  <si>
+    <t>5-MANTIQUEIRA</t>
+  </si>
+  <si>
+    <t>a) Médias ordenadas de maneira decrescente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médias seguidas pela mesma letra não diferem entre si pelo de Tukey ao nível de </t>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(kmedias X 20 GL res)</t>
+    </r>
+  </si>
+  <si>
+    <t>Medias abrangidas</t>
+  </si>
+  <si>
+    <t>Teste de Duncan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médias seguidas pela mesma letra não diferem entre si pelo de Dancan ao nível de </t>
+  </si>
+  <si>
+    <t>G soma geral</t>
+  </si>
+  <si>
+    <t>C fator de correção</t>
   </si>
 </sst>
 </file>
@@ -108,9 +211,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -252,52 +370,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,208 +753,568 @@
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <v>38.9</v>
-      </c>
-      <c r="C3" s="8">
-        <v>25.4</v>
-      </c>
-      <c r="D3" s="8">
-        <v>20.3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>25.7</v>
-      </c>
-      <c r="F3" s="8">
-        <v>29.3</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>20.9</v>
-      </c>
-      <c r="C4" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="D4" s="8">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="E4" s="8">
-        <v>28.3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>28.7</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>28.1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8">
-        <v>25.8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>26.9</v>
-      </c>
-      <c r="F5" s="8">
-        <v>22.3</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B9" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C9" s="3">
         <v>43.2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D9" s="3">
         <v>41.7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E9" s="3">
         <v>39</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F9" s="3">
         <v>40.299999999999997</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B10" s="4">
         <v>47.8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C10" s="4">
         <v>47.8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D10" s="4">
         <v>44.7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E10" s="4">
         <v>50.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F10" s="4">
         <v>56.4</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="17" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="17" t="s">
+      <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="21">
+        <f>AVERAGE(Anova!B6:F6)</f>
+        <v>27.919999999999998</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="19">
+        <f>AVERAGE(Anova!B7:F7)</f>
+        <v>27.279999999999994</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="19">
+        <f>AVERAGE(Anova!B8:F8)</f>
+        <v>26.020000000000003</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="19">
+        <f>AVERAGE(Anova!B9:F9)</f>
+        <v>40.580000000000005</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="23">
+        <f>AVERAGE(Anova!B10:F10)</f>
+        <v>49.440000000000005</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="21">
+        <v>49.440000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19">
+        <v>40.580000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="19">
+        <v>27.919999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="19">
+        <v>27.279999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="23">
+        <v>26.020000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A18:B22">
+    <sortCondition descending="1" ref="B18:B22"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="21">
+        <f>AVERAGE(Anova!B6:F6)</f>
+        <v>27.919999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="19">
+        <f>AVERAGE(Anova!B7:F7)</f>
+        <v>27.279999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="19">
+        <f>AVERAGE(Anova!B8:F8)</f>
+        <v>26.020000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="19">
+        <f>AVERAGE(Anova!B9:F9)</f>
+        <v>40.580000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="23">
+        <f>AVERAGE(Anova!B10:F10)</f>
+        <v>49.440000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="21">
+        <v>49.440000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19">
+        <v>40.580000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="19">
+        <v>27.919999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="19">
+        <v>27.279999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="23">
+        <v>26.020000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>